--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matthjoye\github\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F2F010-B925-41E0-A3EC-ECCB84645019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594ACC54-A1A8-4269-8422-C996EC8905D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
@@ -384,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +406,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -428,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -447,7 +441,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Insatisfaisant" xfId="3" builtinId="27"/>
@@ -2585,7 +2578,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,7 +2637,6 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2656,7 +2648,6 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2668,7 +2659,6 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2680,7 +2670,6 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2692,7 +2681,6 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2704,7 +2692,6 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2716,7 +2703,6 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2728,7 +2714,6 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2740,7 +2725,6 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2752,7 +2736,6 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2764,7 +2747,6 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2776,7 +2758,6 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">

--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matthjoye\github\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594ACC54-A1A8-4269-8422-C996EC8905D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCE557-250A-4A59-BA8B-E49656DFEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
+    <workbookView xWindow="5520" yWindow="3192" windowWidth="11580" windowHeight="8856" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -2578,7 +2578,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2637,6 +2637,9 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2648,6 +2651,9 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2659,6 +2665,9 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2670,6 +2679,9 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2681,6 +2693,9 @@
       <c r="C6">
         <v>4</v>
       </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2692,6 +2707,9 @@
       <c r="C7">
         <v>5</v>
       </c>
+      <c r="D7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -2703,6 +2721,9 @@
       <c r="C8">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2714,6 +2735,9 @@
       <c r="C9">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2725,6 +2749,9 @@
       <c r="C10">
         <v>8</v>
       </c>
+      <c r="D10">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -2736,6 +2763,9 @@
       <c r="C11">
         <v>9</v>
       </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2747,6 +2777,9 @@
       <c r="C12">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -2757,6 +2790,9 @@
       </c>
       <c r="C13">
         <v>11</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">

--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\matthjoye\github\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCE557-250A-4A59-BA8B-E49656DFEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB794B0-F22E-44EC-8244-D067C535510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3192" windowWidth="11580" windowHeight="8856" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -2578,7 +2578,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,6 +2696,9 @@
       <c r="D6">
         <v>0.01</v>
       </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2724,6 +2727,9 @@
       <c r="D8">
         <v>0.01</v>
       </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2738,6 +2744,9 @@
       <c r="D9">
         <v>0.01</v>
       </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2765,6 +2774,9 @@
       </c>
       <c r="D11">
         <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">

--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB794B0-F22E-44EC-8244-D067C535510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6084A5A5-08AD-4EC2-9877-9BB17C65B7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{5FC146A3-AC37-46DC-AD92-E888F69598AC}"/>
   </bookViews>
@@ -2575,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91AA0C-6E10-4C2C-B831-A2E20673E5F8}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,9 +2696,6 @@
       <c r="D6">
         <v>0.01</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2727,9 +2724,6 @@
       <c r="D8">
         <v>0.01</v>
       </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -2744,9 +2738,6 @@
       <c r="D9">
         <v>0.01</v>
       </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -2775,9 +2766,6 @@
       <c r="D11">
         <v>0.01</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -2805,101 +2793,6 @@
       </c>
       <c r="D13">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="load" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -50,12 +50,6 @@
       <family val="2"/>
       <color rgb="FF9C5700"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -122,7 +116,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2376,10 +2370,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2463,155 +2457,32 @@
       <c r="A2" t="n">
         <v>0</v>
       </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>60437</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
+      <c r="D3" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2628,8 +2499,8 @@
   </sheetPr>
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -2718,7 +2589,7 @@
         <v>0.01</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2737,7 +2608,7 @@
         <v>0.01</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -2756,7 +2627,7 @@
         <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -2775,7 +2646,7 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -2794,7 +2665,7 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2813,7 +2684,7 @@
         <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -2832,7 +2703,7 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2851,7 +2722,7 @@
         <v>0.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2870,7 +2741,7 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -2889,7 +2760,7 @@
         <v>0.01</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2908,7 +2779,7 @@
         <v>0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -2927,7 +2798,7 @@
         <v>0.01</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
+++ b/Mini-projet-trey_Buchser_Joye/data/trey_power_network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\micael\git\rhtlab_MIB\Mini-projet-trey_Buchser_Joye\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E360E3-B59D-48E7-8FAF-3D48584A0423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8F960-1AF2-4636-BFA3-A1ACBBE6DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="1" r:id="rId1"/>
@@ -2335,8 +2335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
